--- a/ct/logs/tiramisu/TIRA.xlsx
+++ b/ct/logs/tiramisu/TIRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="26" sheetId="1" r:id="rId1"/>
@@ -116,6 +116,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Segmentation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Dice Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -148,7 +178,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.135636482939633"/>
+          <c:y val="0.13839552238806"/>
+          <c:w val="0.81158573928259"/>
+          <c:h val="0.650173933482195"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -156,15 +196,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'26'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dice_hard</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -238,15 +270,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'26'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>val_dice_hard</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Validation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -325,16 +349,94 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-69396928"/>
-        <c:axId val="-69394608"/>
+        <c:axId val="1835063232"/>
+        <c:axId val="1835065552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-69396928"/>
+        <c:axId val="1835063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.498582020997375"/>
+              <c:y val="0.818678035068102"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -371,15 +473,17 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-69394608"/>
+        <c:crossAx val="1835065552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-69394608"/>
+        <c:axId val="1835065552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -401,6 +505,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                  <a:t>Dice</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -431,7 +606,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-69396928"/>
+        <c:crossAx val="1835063232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1074,14 +1249,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1369,7 +1544,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B16 D1:D16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
